--- a/data/trans_dic/IP16B_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>98,5%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,54; 99,49</t>
+          <t>97,63; 99,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>98,75; 100,0</t>
+          <t>95,66; 99,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>98,49; 99,65</t>
+          <t>97,3; 99,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>99,21%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,63; 99,82</t>
+          <t>97,54; 99,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,66; 99,23</t>
+          <t>98,75; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,3; 99,31</t>
+          <t>98,49; 99,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>91,23%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,72; 96,66</t>
+          <t>82,98; 94,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,25; 97,51</t>
+          <t>86,74; 96,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,98; 96,51</t>
+          <t>86,76; 94,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>96,48%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>97,82%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>98,5%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,63; 99,82</t>
+          <t>97,09; 99,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,66; 99,23</t>
+          <t>93,19; 98,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,3; 99,31</t>
+          <t>96,08; 98,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>99,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>99,33%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,54; 99,49</t>
+          <t>96,66; 99,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>98,75; 100,0</t>
+          <t>98,78; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,49; 99,65</t>
+          <t>98,07; 99,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>99,31%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,24; 98,83</t>
+          <t>97,58; 99,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97,51; 99,02</t>
+          <t>98,32; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,68; 98,81</t>
+          <t>98,43; 99,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>98,18%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>98,39%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>98,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97,2; 98,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>97,49; 99,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>97,7; 98,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP16B_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,98; 94,16</t>
+          <t>82,71; 93,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,74; 96,9</t>
+          <t>86,63; 96,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,76; 94,45</t>
+          <t>87,38; 94,48</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,09; 99,79</t>
+          <t>96,93; 99,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,19; 98,44</t>
+          <t>93,44; 98,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,08; 98,95</t>
+          <t>96,31; 98,9</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,66; 99,81</t>
+          <t>96,85; 99,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>98,78; 100,0</t>
+          <t>98,87; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,07; 99,79</t>
+          <t>98,32; 99,8</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,7</t>
+          <t>97,31; 99,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,32; 100,0</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98,43; 99,71</t>
+          <t>98,42; 99,76</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,2; 98,77</t>
+          <t>97,17; 98,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>97,49; 99,04</t>
+          <t>97,38; 98,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,7; 98,73</t>
+          <t>97,67; 98,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>91,38%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,71; 93,57</t>
+          <t>87,1; 96,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,63; 96,84</t>
+          <t>83,15; 93,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,38; 94,48</t>
+          <t>87,42; 94,4</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,85%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96,93; 99,79</t>
+          <t>92,99; 98,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,44; 98,46</t>
+          <t>97,41; 99,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,31; 98,9</t>
+          <t>96,14; 98,89</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>99,78%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>98,93%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>99,78%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>99,32%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,85; 99,82</t>
+          <t>98,85; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>98,87; 100,0</t>
+          <t>96,95; 99,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,32; 99,8</t>
+          <t>98,14; 99,81</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>99,75%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>98,94%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>99,72%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>99,32%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,31; 99,68</t>
+          <t>98,58; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,83; 100,0</t>
+          <t>97,47; 99,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98,42; 99,76</t>
+          <t>98,46; 99,75</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>98,31%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,17; 98,8</t>
+          <t>97,5; 99,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>97,38; 98,95</t>
+          <t>97,3; 98,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,67; 98,75</t>
+          <t>97,72; 98,83</t>
         </is>
       </c>
     </row>
